--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -482,9 +482,49 @@
         <v>2025-04-07T09:42:25.125Z</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>1744624259342</v>
+      </c>
+      <c r="B5" t="str">
+        <v>vishal K</v>
+      </c>
+      <c r="C5" t="str">
+        <v>vishal@ssn.edu</v>
+      </c>
+      <c r="D5" t="str">
+        <v>$2a$10$WFBDROOHGnBjzR7XpSrwrOQjI8BjASxXN67YRbfYB2sDga9YyAlO6</v>
+      </c>
+      <c r="E5" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="F5" t="str">
+        <v>2025-04-14T09:50:59.342Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>1744625892798</v>
+      </c>
+      <c r="B6" t="str">
+        <v>test user</v>
+      </c>
+      <c r="C6" t="str">
+        <v>test1@college.edu</v>
+      </c>
+      <c r="D6" t="str">
+        <v>$2a$10$GRSNPeX9QoxldqbiG5BRSOxfRQVFVJ42AUrpnUA1MUhDfvOQjuH3.</v>
+      </c>
+      <c r="E6" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="F6" t="str">
+        <v>2025-04-14T10:18:12.798Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/data/users.xlsx
+++ b/server/data/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -522,9 +522,29 @@
         <v>2025-04-14T10:18:12.798Z</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>1744632427602</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Test 2</v>
+      </c>
+      <c r="C7" t="str">
+        <v>test2@college.edu</v>
+      </c>
+      <c r="D7" t="str">
+        <v>$2a$10$69yf2PbB4P921tRGMnO97.FLxEqGqgZgqMpX0V9ChB8nEgxsB0sqC</v>
+      </c>
+      <c r="E7" t="str">
+        <v>CSE</v>
+      </c>
+      <c r="F7" t="str">
+        <v>2025-04-14T12:07:07.602Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F7"/>
   </ignoredErrors>
 </worksheet>
 </file>